--- a/ig/nr-prepare-release/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3099" uniqueCount="580">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3095" uniqueCount="574">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-27T13:11:24+00:00</t>
+    <t>2023-09-01T08:02:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -145,6 +145,10 @@
     <t>Usually, this is used for documents other than those defined by FHIR.</t>
   </si>
   <si>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}iti-mhd-repl:a DocumetReference replacements needs to relate to a superseded DocumentReference {relatesTo.empty() or (relatesTo.code='replaces' implies relatesTo.target.exists())}</t>
+  </si>
+  <si>
     <t>Event</t>
   </si>
   <si>
@@ -204,6 +208,10 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
     <t>DocumentReference.meta.id</t>
   </si>
   <si>
@@ -275,10 +283,6 @@
     <t>Meta.versionId</t>
   </si>
   <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
     <t>version : [0..1] Numerique</t>
   </si>
   <si>
@@ -475,7 +479,7 @@
 </t>
   </si>
   <si>
-    <t>Contained, inline Resources</t>
+    <t>Ressource contenue. Dans le cadre de ce profil, il est obligatoire qu'il y ait au moins une ressource contenue : la•les ressource•s référencée•s dans les attributs author et authenticator</t>
   </si>
   <si>
     <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
@@ -512,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t>Extension définie par ce volet pour distinguer les fiches archivées des actives.</t>
+    <t>Extension définie pour distinguer les fiches archivées des actives.</t>
   </si>
   <si>
     <t>Extension définie par le volet ANS "Volet Partage de documents de santé en mobilité" sur les ressources List et DocumentReference pour distinguer les lots de soumission et les fiches archivés des actives.</t>
@@ -743,9 +747,6 @@
     <t>Key metadata element describing the the category or classification of the document. This is a broader perspective that groups similar documents based on how they would be used. This is a primary key used in searching.</t>
   </si>
   <si>
-    <t>XDS classCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J06-XdsClassCode-CISIS/FHIR/JDV-J06-XdsClassCode-CISIS</t>
   </si>
   <si>
@@ -782,16 +783,10 @@
 </t>
   </si>
   <si>
-    <t>Référence vers le patient concerné par le document.</t>
+    <t>Référence vers le patient concerné par le document. Cette même ressource est référencée depuis context.sourcePatientInfo.</t>
   </si>
   <si>
     <t>Who or what the document is about. The document can be about a person, (patient or healthcare practitioner), a device (e.g. a machine) or even a group of subjects (such as a document about a herd of farm animals, or a set of patients that share a common exposure).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-subj-ref:La ressource référencée doit être présente sous l’élément DocumentReference.contained.
-Référence contrainte au profil FrPatient
-Cette même ressource est référencée depuis context.sourcePatientInfo. {f:subject}</t>
   </si>
   <si>
     <t>Event.subject</t>
@@ -849,7 +844,7 @@
     <t>DocumentReference.author</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|Device|http://interopsante.org/fhir/StructureDefinition/FrPatient) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -862,14 +857,6 @@
     <t>Not necessarily who did the actual data entry (i.e. typist) or who was the source (informant).</t>
   </si>
   <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-author:Cardinalité contrainte à [1..*]
-Reference contrainte à :
-- PractitionerRole : Dans le cas d’un auteur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASSreprésentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
-- Device,
-- Patient contrainte au profil FrPatient. {f:author}</t>
-  </si>
-  <si>
     <t>Event.performer.actor</t>
   </si>
   <si>
@@ -894,7 +881,7 @@
     <t>DocumentReference.authenticator</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/practitionerRole-organizationalRole-rass|https://apifhir.annuaire.sante.fr/ws-sync/exposed/structuredefinition/organization-rass) &lt;&lt;contained&gt;&gt;
+    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-practitionerrole|https://interop.esante.gouv.fr/ig/fhir/annuaire/StructureDefinition/as-organization) &lt;&lt;contained&gt;&gt;
 </t>
   </si>
   <si>
@@ -905,13 +892,6 @@
   </si>
   <si>
     <t>Represents a participant within the author institution who has legally authenticated or attested the document. Legal authentication implies that a document has been signed manually or electronically by the legal Authenticator.</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-constr-bind-authenticator:Cardinalité contrainte à [1..1]
-Référence contrainte au profil 
-- PractitionerRole : Dans le cas d’un authentificateur professionnel, c’est le profil PractitionerRoleOrganizationalRoleRASS représentant la situation d’exercice qui doit être référencé. Lui-même fera le lien avec le profil PractitionerRoleProfessionalRoleRASS représentant l’exercice professionnel et avec FrPractitioner.
--  Organization contrainte au profil FrOrganization. {f:authenticator}</t>
   </si>
   <si>
     <t>Composition.attester</t>
@@ -1446,9 +1426,6 @@
   </si>
   <si>
     <t>Note that while IHE mostly issues URNs for format types, not all documents can be identified by a URI.</t>
-  </si>
-  <si>
-    <t>XDS formatCode documents CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J10-XdsFormatCode-CISIS/FHIR/JDV-J10-XdsFormatCode-CISIS</t>
@@ -1670,9 +1647,6 @@
     <t>The kind of facility where the patient was seen.</t>
   </si>
   <si>
-    <t>XDS healthcareFacilityTypeCode CI-SIS</t>
-  </si>
-  <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J02-XdsHealthcareFacilityTypeCode-CISIS/FHIR/JDV-J02-XdsHealthcareFacilityTypeCode-CISIS</t>
   </si>
   <si>
@@ -1712,9 +1686,6 @@
   </si>
   <si>
     <t>This is an important piece of metadata that providers often rely upon to quickly sort and/or filter out to find specific content.</t>
-  </si>
-  <si>
-    <t>XDS practiceSettingCode CI-SIS</t>
   </si>
   <si>
     <t>https://mos.esante.gouv.fr/NOS/JDV_J04-XdsPracticeSettingCode-CISIS/FHIR/JDV-J04-XdsPracticeSettingCode-CISIS</t>
@@ -2189,7 +2160,7 @@
     <col min="8" max="8" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="2.1640625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="207.71875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="180.21875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2324,19 +2295,19 @@
         <v>35</v>
       </c>
       <c r="AJ1" t="s" s="2">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="AK1" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AL1" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="AM1" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AN1" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="AO1" t="s" s="2">
         <v>35</v>
@@ -2348,18 +2319,18 @@
         <v>35</v>
       </c>
       <c r="AR1" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AS1" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -2370,7 +2341,7 @@
         <v>36</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H2" t="s" s="2">
         <v>35</v>
@@ -2379,19 +2350,19 @@
         <v>35</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="N2" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -2441,13 +2412,13 @@
         <v>35</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>35</v>
@@ -2485,10 +2456,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -2499,7 +2470,7 @@
         <v>36</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H3" t="s" s="2">
         <v>35</v>
@@ -2508,16 +2479,16 @@
         <v>35</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -2568,19 +2539,19 @@
         <v>35</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>35</v>
@@ -2612,10 +2583,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -2626,7 +2597,7 @@
         <v>36</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>35</v>
@@ -2638,13 +2609,13 @@
         <v>35</v>
       </c>
       <c r="K4" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L4" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M4" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -2695,13 +2666,13 @@
         <v>35</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>35</v>
@@ -2716,7 +2687,7 @@
         <v>35</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>35</v>
@@ -2739,14 +2710,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -2765,16 +2736,16 @@
         <v>35</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M5" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N5" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -2812,19 +2783,19 @@
         <v>35</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD5" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>36</v>
@@ -2836,7 +2807,7 @@
         <v>35</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>35</v>
@@ -2845,7 +2816,7 @@
         <v>35</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>35</v>
@@ -2868,10 +2839,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -2882,28 +2853,28 @@
         <v>36</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="N6" t="s" s="2">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -2953,19 +2924,19 @@
         <v>35</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>35</v>
@@ -2992,15 +2963,15 @@
         <v>35</v>
       </c>
       <c r="AS6" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -3011,7 +2982,7 @@
         <v>36</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>35</v>
@@ -3020,19 +2991,19 @@
         <v>35</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K7" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L7" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="M7" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="N7" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -3082,19 +3053,19 @@
         <v>35</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>35</v>
@@ -3126,10 +3097,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -3140,7 +3111,7 @@
         <v>36</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H8" t="s" s="2">
         <v>35</v>
@@ -3149,19 +3120,19 @@
         <v>35</v>
       </c>
       <c r="J8" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K8" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L8" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="M8" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="N8" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -3211,19 +3182,19 @@
         <v>35</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>35</v>
@@ -3255,10 +3226,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -3278,19 +3249,19 @@
         <v>35</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="N9" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -3340,7 +3311,7 @@
         <v>35</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>36</v>
@@ -3352,7 +3323,7 @@
         <v>35</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>35</v>
@@ -3376,7 +3347,7 @@
         <v>35</v>
       </c>
       <c r="AR9" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="AS9" t="s" s="2">
         <v>35</v>
@@ -3384,10 +3355,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -3407,19 +3378,19 @@
         <v>35</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="N10" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -3445,13 +3416,13 @@
         <v>35</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA10" t="s" s="2">
         <v>35</v>
@@ -3469,7 +3440,7 @@
         <v>35</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>36</v>
@@ -3481,7 +3452,7 @@
         <v>35</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>35</v>
@@ -3513,10 +3484,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -3536,19 +3507,19 @@
         <v>35</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M11" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="N11" t="s" s="2">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -3574,13 +3545,13 @@
         <v>35</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AA11" t="s" s="2">
         <v>35</v>
@@ -3598,7 +3569,7 @@
         <v>35</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>36</v>
@@ -3610,7 +3581,7 @@
         <v>35</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>35</v>
@@ -3642,10 +3613,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -3656,28 +3627,28 @@
         <v>36</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="M12" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="N12" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -3727,19 +3698,19 @@
         <v>35</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>35</v>
@@ -3771,10 +3742,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3785,7 +3756,7 @@
         <v>36</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>35</v>
@@ -3797,16 +3768,16 @@
         <v>35</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3832,13 +3803,13 @@
         <v>35</v>
       </c>
       <c r="X13" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="AA13" t="s" s="2">
         <v>35</v>
@@ -3856,19 +3827,19 @@
         <v>35</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>35</v>
@@ -3900,21 +3871,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>35</v>
@@ -3926,16 +3897,16 @@
         <v>35</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="N14" t="s" s="2">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -3985,19 +3956,19 @@
         <v>35</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK14" t="s" s="2">
         <v>35</v>
@@ -4006,7 +3977,7 @@
         <v>35</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>35</v>
@@ -4029,24 +4000,24 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G15" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>35</v>
@@ -4055,16 +4026,16 @@
         <v>35</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -4114,7 +4085,7 @@
         <v>35</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>36</v>
@@ -4135,7 +4106,7 @@
         <v>35</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>35</v>
@@ -4158,10 +4129,10 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
@@ -4184,13 +4155,13 @@
         <v>35</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" s="2"/>
@@ -4229,17 +4200,17 @@
         <v>35</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC16" s="2"/>
       <c r="AD16" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>36</v>
@@ -4251,7 +4222,7 @@
         <v>35</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>35</v>
@@ -4283,13 +4254,13 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C17" t="s" s="2">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D17" t="s" s="2">
         <v>35</v>
@@ -4299,10 +4270,10 @@
         <v>36</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I17" t="s" s="2">
         <v>35</v>
@@ -4311,13 +4282,13 @@
         <v>35</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -4368,7 +4339,7 @@
         <v>35</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>36</v>
@@ -4377,10 +4348,10 @@
         <v>37</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>35</v>
@@ -4407,15 +4378,15 @@
         <v>35</v>
       </c>
       <c r="AS17" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -4432,19 +4403,19 @@
         <v>35</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J18" t="s" s="2">
         <v>35</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -4495,7 +4466,7 @@
         <v>35</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>36</v>
@@ -4507,7 +4478,7 @@
         <v>35</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK18" t="s" s="2">
         <v>35</v>
@@ -4539,10 +4510,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4550,13 +4521,13 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>35</v>
@@ -4565,19 +4536,19 @@
         <v>35</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P19" t="s" s="2">
         <v>35</v>
@@ -4626,19 +4597,19 @@
         <v>35</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH19" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI19" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK19" t="s" s="2">
         <v>35</v>
@@ -4647,7 +4618,7 @@
         <v>35</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN19" t="s" s="2">
         <v>35</v>
@@ -4656,24 +4627,24 @@
         <v>35</v>
       </c>
       <c r="AP19" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ19" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AR19" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AS19" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4687,22 +4658,22 @@
         <v>37</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4741,17 +4712,17 @@
         <v>35</v>
       </c>
       <c r="AB20" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AC20" s="2"/>
       <c r="AD20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>36</v>
@@ -4763,45 +4734,45 @@
         <v>35</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="AN20" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="AP20" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AQ20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AR20" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AS20" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C21" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D21" t="s" s="2">
         <v>35</v>
@@ -4823,13 +4794,13 @@
         <v>35</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4880,7 +4851,7 @@
         <v>35</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>36</v>
@@ -4889,10 +4860,10 @@
         <v>37</v>
       </c>
       <c r="AI21" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>35</v>
@@ -4901,7 +4872,7 @@
         <v>35</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AN21" t="s" s="2">
         <v>35</v>
@@ -4910,7 +4881,7 @@
         <v>35</v>
       </c>
       <c r="AP21" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="AQ21" t="s" s="2">
         <v>35</v>
@@ -4924,10 +4895,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4935,31 +4906,31 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4985,11 +4956,11 @@
         <v>35</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y22" s="2"/>
       <c r="Z22" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="AA22" t="s" s="2">
         <v>35</v>
@@ -5007,54 +4978,54 @@
         <v>35</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="AN22" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP22" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="AQ22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AR22" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="AS22" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -5074,19 +5045,19 @@
         <v>35</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="O23" s="2"/>
       <c r="P23" t="s" s="2">
@@ -5112,13 +5083,13 @@
         <v>35</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="AA23" t="s" s="2">
         <v>35</v>
@@ -5136,37 +5107,37 @@
         <v>35</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AN23" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AP23" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="AQ23" t="s" s="2">
         <v>35</v>
@@ -5180,10 +5151,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -5191,31 +5162,31 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="O24" s="2"/>
       <c r="P24" t="s" s="2">
@@ -5241,11 +5212,11 @@
         <v>35</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>35</v>
@@ -5263,86 +5234,86 @@
         <v>35</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AO24" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="AQ24" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="AR24" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AS24" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="O25" s="2"/>
       <c r="P25" t="s" s="2">
@@ -5368,11 +5339,9 @@
         <v>35</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y25" t="s" s="2">
-        <v>230</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
         <v>231</v>
       </c>
@@ -5392,7 +5361,7 @@
         <v>35</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>36</v>
@@ -5419,7 +5388,7 @@
         <v>235</v>
       </c>
       <c r="AO25" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AP25" t="s" s="2">
         <v>35</v>
@@ -5447,19 +5416,19 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K26" t="s" s="2">
         <v>240</v>
@@ -5525,80 +5494,80 @@
         <v>36</v>
       </c>
       <c r="AH26" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI26" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ26" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK26" t="s" s="2">
         <v>243</v>
       </c>
-      <c r="AK26" t="s" s="2">
+      <c r="AL26" t="s" s="2">
         <v>244</v>
       </c>
-      <c r="AL26" t="s" s="2">
+      <c r="AM26" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM26" t="s" s="2">
+      <c r="AN26" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN26" t="s" s="2">
+      <c r="AO26" t="s" s="2">
         <v>247</v>
       </c>
-      <c r="AO26" t="s" s="2">
+      <c r="AP26" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="AP26" t="s" s="2">
+      <c r="AQ26" t="s" s="2">
         <v>249</v>
       </c>
-      <c r="AQ26" t="s" s="2">
+      <c r="AR26" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="AS26" t="s" s="2">
         <v>250</v>
-      </c>
-      <c r="AR26" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="AS26" t="s" s="2">
-        <v>251</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="L27" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="M27" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="M27" t="s" s="2">
+      <c r="N27" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="N27" t="s" s="2">
-        <v>256</v>
       </c>
       <c r="O27" s="2"/>
       <c r="P27" t="s" s="2">
@@ -5648,34 +5617,34 @@
         <v>35</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH27" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI27" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK27" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="AL27" t="s" s="2">
         <v>257</v>
       </c>
-      <c r="AL27" t="s" s="2">
+      <c r="AM27" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="AM27" t="s" s="2">
+      <c r="AN27" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO27" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="AN27" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO27" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="AP27" t="s" s="2">
         <v>35</v>
@@ -5692,10 +5661,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5703,31 +5672,31 @@
       </c>
       <c r="E28" s="2"/>
       <c r="F28" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G28" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I28" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>261</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>262</v>
       </c>
-      <c r="L28" t="s" s="2">
+      <c r="M28" t="s" s="2">
         <v>263</v>
       </c>
-      <c r="M28" t="s" s="2">
+      <c r="N28" t="s" s="2">
         <v>264</v>
-      </c>
-      <c r="N28" t="s" s="2">
-        <v>265</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5777,7 +5746,7 @@
         <v>35</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>36</v>
@@ -5789,42 +5758,42 @@
         <v>35</v>
       </c>
       <c r="AJ28" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK28" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL28" t="s" s="2">
         <v>266</v>
       </c>
-      <c r="AK28" t="s" s="2">
+      <c r="AM28" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AL28" t="s" s="2">
+      <c r="AN28" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AM28" t="s" s="2">
+      <c r="AO28" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP28" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="AN28" t="s" s="2">
+      <c r="AQ28" t="s" s="2">
         <v>270</v>
       </c>
-      <c r="AO28" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP28" t="s" s="2">
+      <c r="AR28" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="AS28" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="AQ28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AR28" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="AS28" t="s" s="2">
-        <v>273</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5832,13 +5801,13 @@
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I29" t="s" s="2">
         <v>35</v>
@@ -5847,16 +5816,16 @@
         <v>35</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="L29" t="s" s="2">
+        <v>274</v>
+      </c>
+      <c r="M29" t="s" s="2">
         <v>275</v>
       </c>
-      <c r="L29" t="s" s="2">
+      <c r="N29" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="M29" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N29" t="s" s="2">
-        <v>278</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5906,54 +5875,54 @@
         <v>35</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH29" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ29" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK29" t="s" s="2">
+        <v>265</v>
+      </c>
+      <c r="AL29" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="AM29" t="s" s="2">
+        <v>278</v>
+      </c>
+      <c r="AN29" t="s" s="2">
         <v>279</v>
       </c>
-      <c r="AK29" t="s" s="2">
-        <v>267</v>
-      </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AO29" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="AM29" t="s" s="2">
+      <c r="AP29" t="s" s="2">
         <v>281</v>
       </c>
-      <c r="AN29" t="s" s="2">
+      <c r="AQ29" t="s" s="2">
         <v>282</v>
       </c>
-      <c r="AO29" t="s" s="2">
+      <c r="AR29" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="AS29" t="s" s="2">
         <v>283</v>
-      </c>
-      <c r="AP29" t="s" s="2">
-        <v>284</v>
-      </c>
-      <c r="AQ29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AR29" t="s" s="2">
-        <v>285</v>
-      </c>
-      <c r="AS29" t="s" s="2">
-        <v>286</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5964,7 +5933,7 @@
         <v>36</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H30" t="s" s="2">
         <v>35</v>
@@ -5976,16 +5945,16 @@
         <v>35</v>
       </c>
       <c r="K30" t="s" s="2">
+        <v>285</v>
+      </c>
+      <c r="L30" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>287</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>288</v>
-      </c>
-      <c r="L30" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>290</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>291</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -6035,28 +6004,28 @@
         <v>35</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH30" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="AN30" t="s" s="2">
         <v>35</v>
@@ -6071,7 +6040,7 @@
         <v>35</v>
       </c>
       <c r="AR30" t="s" s="2">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="AS30" t="s" s="2">
         <v>35</v>
@@ -6079,10 +6048,10 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -6096,25 +6065,25 @@
         <v>37</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I31" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K31" t="s" s="2">
+        <v>293</v>
+      </c>
+      <c r="L31" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="M31" t="s" s="2">
+        <v>295</v>
+      </c>
+      <c r="N31" t="s" s="2">
         <v>296</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>297</v>
-      </c>
-      <c r="M31" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="N31" t="s" s="2">
-        <v>299</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -6164,7 +6133,7 @@
         <v>35</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>36</v>
@@ -6176,31 +6145,31 @@
         <v>35</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>297</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL31" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="AM31" t="s" s="2">
+        <v>299</v>
+      </c>
+      <c r="AN31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP31" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ31" t="s" s="2">
         <v>300</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL31" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>302</v>
-      </c>
-      <c r="AN31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP31" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ31" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="AR31" t="s" s="2">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="AS31" t="s" s="2">
         <v>35</v>
@@ -6208,10 +6177,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -6222,7 +6191,7 @@
         <v>36</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H32" t="s" s="2">
         <v>35</v>
@@ -6234,13 +6203,13 @@
         <v>35</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -6291,13 +6260,13 @@
         <v>35</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI32" t="s" s="2">
         <v>35</v>
@@ -6312,7 +6281,7 @@
         <v>35</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN32" t="s" s="2">
         <v>35</v>
@@ -6335,14 +6304,14 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" t="s" s="2">
@@ -6361,16 +6330,16 @@
         <v>35</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N33" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O33" s="2"/>
       <c r="P33" t="s" s="2">
@@ -6420,7 +6389,7 @@
         <v>35</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>36</v>
@@ -6432,7 +6401,7 @@
         <v>35</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>35</v>
@@ -6441,7 +6410,7 @@
         <v>35</v>
       </c>
       <c r="AM33" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN33" t="s" s="2">
         <v>35</v>
@@ -6464,14 +6433,14 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
@@ -6484,25 +6453,25 @@
         <v>35</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N34" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O34" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P34" t="s" s="2">
         <v>35</v>
@@ -6551,7 +6520,7 @@
         <v>35</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>36</v>
@@ -6563,7 +6532,7 @@
         <v>35</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>35</v>
@@ -6572,7 +6541,7 @@
         <v>35</v>
       </c>
       <c r="AM34" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN34" t="s" s="2">
         <v>35</v>
@@ -6595,10 +6564,10 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6606,10 +6575,10 @@
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G35" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H35" t="s" s="2">
         <v>35</v>
@@ -6618,19 +6587,19 @@
         <v>35</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="N35" t="s" s="2">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="O35" s="2"/>
       <c r="P35" t="s" s="2">
@@ -6656,78 +6625,78 @@
         <v>35</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Y35" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="AM35" t="s" s="2">
         <v>316</v>
       </c>
-      <c r="Z35" t="s" s="2">
+      <c r="AN35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP35" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ35" t="s" s="2">
         <v>317</v>
       </c>
-      <c r="AA35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>312</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL35" t="s" s="2">
+      <c r="AR35" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="AM35" t="s" s="2">
+      <c r="AS35" t="s" s="2">
         <v>319</v>
-      </c>
-      <c r="AN35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP35" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ35" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="AR35" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="AS35" t="s" s="2">
-        <v>322</v>
       </c>
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6735,10 +6704,10 @@
       </c>
       <c r="E36" s="2"/>
       <c r="F36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>35</v>
@@ -6747,16 +6716,16 @@
         <v>35</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6807,54 +6776,54 @@
         <v>35</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="AG36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH36" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI36" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ36" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>326</v>
+      </c>
+      <c r="AN36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP36" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ36" t="s" s="2">
         <v>327</v>
       </c>
-      <c r="AK36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL36" t="s" s="2">
+      <c r="AR36" t="s" s="2">
         <v>328</v>
       </c>
-      <c r="AM36" t="s" s="2">
+      <c r="AS36" t="s" s="2">
         <v>329</v>
-      </c>
-      <c r="AN36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP36" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ36" t="s" s="2">
-        <v>330</v>
-      </c>
-      <c r="AR36" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AS36" t="s" s="2">
-        <v>332</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6865,31 +6834,31 @@
         <v>36</v>
       </c>
       <c r="G37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L37" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="O37" t="s" s="2">
         <v>334</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N37" t="s" s="2">
-        <v>336</v>
-      </c>
-      <c r="O37" t="s" s="2">
-        <v>337</v>
       </c>
       <c r="P37" t="s" s="2">
         <v>35</v>
@@ -6938,19 +6907,19 @@
         <v>35</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH37" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI37" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ37" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK37" t="s" s="2">
         <v>35</v>
@@ -6959,33 +6928,33 @@
         <v>35</v>
       </c>
       <c r="AM37" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="AN37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO37" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP37" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AQ37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AR37" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AS37" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="AN37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO37" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP37" t="s" s="2">
-        <v>339</v>
-      </c>
-      <c r="AQ37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AR37" t="s" s="2">
-        <v>340</v>
-      </c>
-      <c r="AS37" t="s" s="2">
-        <v>341</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6993,34 +6962,34 @@
       </c>
       <c r="E38" s="2"/>
       <c r="F38" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I38" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L38" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="N38" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="O38" t="s" s="2">
         <v>343</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>344</v>
-      </c>
-      <c r="N38" t="s" s="2">
-        <v>345</v>
-      </c>
-      <c r="O38" t="s" s="2">
-        <v>346</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>35</v>
@@ -7045,13 +7014,13 @@
         <v>35</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>35</v>
@@ -7069,7 +7038,7 @@
         <v>35</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>36</v>
@@ -7081,42 +7050,42 @@
         <v>35</v>
       </c>
       <c r="AJ38" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="AN38" t="s" s="2">
         <v>347</v>
       </c>
-      <c r="AK38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL38" t="s" s="2">
+      <c r="AO38" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP38" t="s" s="2">
         <v>348</v>
       </c>
-      <c r="AM38" t="s" s="2">
+      <c r="AQ38" t="s" s="2">
         <v>349</v>
       </c>
-      <c r="AN38" t="s" s="2">
+      <c r="AR38" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AS38" t="s" s="2">
         <v>350</v>
-      </c>
-      <c r="AO38" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP38" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="AQ38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AR38" t="s" s="2">
-        <v>352</v>
-      </c>
-      <c r="AS38" t="s" s="2">
-        <v>353</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -7124,28 +7093,28 @@
       </c>
       <c r="E39" s="2"/>
       <c r="F39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -7196,10 +7165,10 @@
         <v>35</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="AG39" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH39" t="s" s="2">
         <v>37</v>
@@ -7208,16 +7177,16 @@
         <v>35</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="AN39" t="s" s="2">
         <v>35</v>
@@ -7240,10 +7209,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -7254,7 +7223,7 @@
         <v>36</v>
       </c>
       <c r="G40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H40" t="s" s="2">
         <v>35</v>
@@ -7266,13 +7235,13 @@
         <v>35</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -7323,13 +7292,13 @@
         <v>35</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH40" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI40" t="s" s="2">
         <v>35</v>
@@ -7344,7 +7313,7 @@
         <v>35</v>
       </c>
       <c r="AM40" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN40" t="s" s="2">
         <v>35</v>
@@ -7367,14 +7336,14 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" t="s" s="2">
@@ -7393,16 +7362,16 @@
         <v>35</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N41" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O41" s="2"/>
       <c r="P41" t="s" s="2">
@@ -7452,7 +7421,7 @@
         <v>35</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>36</v>
@@ -7464,7 +7433,7 @@
         <v>35</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>35</v>
@@ -7473,7 +7442,7 @@
         <v>35</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN41" t="s" s="2">
         <v>35</v>
@@ -7496,14 +7465,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -7516,25 +7485,25 @@
         <v>35</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O42" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P42" t="s" s="2">
         <v>35</v>
@@ -7583,7 +7552,7 @@
         <v>35</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>36</v>
@@ -7595,7 +7564,7 @@
         <v>35</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK42" t="s" s="2">
         <v>35</v>
@@ -7604,7 +7573,7 @@
         <v>35</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN42" t="s" s="2">
         <v>35</v>
@@ -7627,10 +7596,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -7638,10 +7607,10 @@
       </c>
       <c r="E43" s="2"/>
       <c r="F43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H43" t="s" s="2">
         <v>35</v>
@@ -7650,16 +7619,16 @@
         <v>35</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" s="2"/>
@@ -7710,40 +7679,40 @@
         <v>35</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AH43" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ43" t="s" s="2">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="AK43" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL43" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM43" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN43" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AO43" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP43" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="AQ43" t="s" s="2">
         <v>366</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN43" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="AO43" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP43" t="s" s="2">
-        <v>368</v>
-      </c>
-      <c r="AQ43" t="s" s="2">
-        <v>369</v>
       </c>
       <c r="AR43" t="s" s="2">
         <v>35</v>
@@ -7754,10 +7723,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7768,7 +7737,7 @@
         <v>36</v>
       </c>
       <c r="G44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H44" t="s" s="2">
         <v>35</v>
@@ -7780,13 +7749,13 @@
         <v>35</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -7837,13 +7806,13 @@
         <v>35</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH44" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI44" t="s" s="2">
         <v>35</v>
@@ -7858,7 +7827,7 @@
         <v>35</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN44" t="s" s="2">
         <v>35</v>
@@ -7881,14 +7850,14 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" t="s" s="2">
@@ -7907,16 +7876,16 @@
         <v>35</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N45" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O45" s="2"/>
       <c r="P45" t="s" s="2">
@@ -7954,19 +7923,19 @@
         <v>35</v>
       </c>
       <c r="AB45" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC45" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD45" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>36</v>
@@ -7978,7 +7947,7 @@
         <v>35</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>35</v>
@@ -7987,7 +7956,7 @@
         <v>35</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN45" t="s" s="2">
         <v>35</v>
@@ -8010,10 +7979,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -8021,10 +7990,10 @@
       </c>
       <c r="E46" s="2"/>
       <c r="F46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G46" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H46" t="s" s="2">
         <v>35</v>
@@ -8033,20 +8002,20 @@
         <v>35</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="P46" t="s" s="2">
         <v>35</v>
@@ -8059,79 +8028,79 @@
         <v>35</v>
       </c>
       <c r="T46" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="U46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X46" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="Y46" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="Z46" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="AA46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF46" t="s" s="2">
         <v>376</v>
       </c>
-      <c r="U46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X46" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="Y46" t="s" s="2">
+      <c r="AG46" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH46" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ46" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM46" t="s" s="2">
         <v>377</v>
       </c>
-      <c r="Z46" t="s" s="2">
+      <c r="AN46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP46" t="s" s="2">
         <v>378</v>
       </c>
-      <c r="AA46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF46" t="s" s="2">
+      <c r="AQ46" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR46" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AG46" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH46" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ46" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM46" t="s" s="2">
-        <v>380</v>
-      </c>
-      <c r="AN46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP46" t="s" s="2">
-        <v>381</v>
-      </c>
-      <c r="AQ46" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR46" t="s" s="2">
-        <v>382</v>
       </c>
       <c r="AS46" t="s" s="2">
         <v>35</v>
@@ -8139,10 +8108,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -8150,32 +8119,32 @@
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G47" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I47" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="P47" t="s" s="2">
         <v>35</v>
@@ -8188,90 +8157,90 @@
         <v>35</v>
       </c>
       <c r="T47" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="U47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X47" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y47" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="Z47" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AA47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF47" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AG47" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH47" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ47" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM47" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="AN47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ47" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR47" t="s" s="2">
         <v>387</v>
       </c>
-      <c r="U47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X47" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y47" t="s" s="2">
-        <v>132</v>
-      </c>
-      <c r="Z47" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AA47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF47" t="s" s="2">
+      <c r="AS47" t="s" s="2">
         <v>388</v>
-      </c>
-      <c r="AG47" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH47" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ47" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM47" t="s" s="2">
-        <v>389</v>
-      </c>
-      <c r="AN47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ47" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR47" t="s" s="2">
-        <v>390</v>
-      </c>
-      <c r="AS47" t="s" s="2">
-        <v>391</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -8294,19 +8263,19 @@
         <v>35</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="L48" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="M48" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>393</v>
       </c>
-      <c r="L48" t="s" s="2">
+      <c r="O48" t="s" s="2">
         <v>394</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>395</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="O48" t="s" s="2">
-        <v>397</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>35</v>
@@ -8355,19 +8324,19 @@
         <v>35</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH48" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI48" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>35</v>
@@ -8376,7 +8345,7 @@
         <v>35</v>
       </c>
       <c r="AM48" t="s" s="2">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="AN48" t="s" s="2">
         <v>35</v>
@@ -8385,7 +8354,7 @@
         <v>35</v>
       </c>
       <c r="AP48" t="s" s="2">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="AQ48" t="s" s="2">
         <v>35</v>
@@ -8399,10 +8368,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -8410,10 +8379,10 @@
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>35</v>
@@ -8422,22 +8391,22 @@
         <v>35</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="L49" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="M49" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="N49" t="s" s="2">
         <v>402</v>
       </c>
-      <c r="L49" t="s" s="2">
+      <c r="O49" t="s" s="2">
         <v>403</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>404</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>405</v>
-      </c>
-      <c r="O49" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>35</v>
@@ -8450,90 +8419,90 @@
         <v>35</v>
       </c>
       <c r="T49" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="U49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF49" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="AG49" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH49" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ49" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="AK49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="U49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF49" t="s" s="2">
+      <c r="AN49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP49" t="s" s="2">
         <v>408</v>
       </c>
-      <c r="AG49" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH49" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ49" t="s" s="2">
+      <c r="AQ49" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR49" t="s" s="2">
         <v>409</v>
       </c>
-      <c r="AK49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM49" t="s" s="2">
+      <c r="AS49" t="s" s="2">
         <v>410</v>
-      </c>
-      <c r="AN49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP49" t="s" s="2">
-        <v>411</v>
-      </c>
-      <c r="AQ49" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR49" t="s" s="2">
-        <v>412</v>
-      </c>
-      <c r="AS49" t="s" s="2">
-        <v>413</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -8541,10 +8510,10 @@
       </c>
       <c r="E50" s="2"/>
       <c r="F50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H50" t="s" s="2">
         <v>35</v>
@@ -8553,22 +8522,22 @@
         <v>35</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="L50" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>415</v>
       </c>
-      <c r="L50" t="s" s="2">
+      <c r="O50" t="s" s="2">
         <v>416</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="O50" t="s" s="2">
-        <v>419</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>35</v>
@@ -8617,19 +8586,19 @@
         <v>35</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH50" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI50" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ50" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK50" t="s" s="2">
         <v>35</v>
@@ -8638,7 +8607,7 @@
         <v>35</v>
       </c>
       <c r="AM50" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AN50" t="s" s="2">
         <v>35</v>
@@ -8653,7 +8622,7 @@
         <v>35</v>
       </c>
       <c r="AR50" t="s" s="2">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="AS50" t="s" s="2">
         <v>35</v>
@@ -8661,10 +8630,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -8672,10 +8641,10 @@
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H51" t="s" s="2">
         <v>35</v>
@@ -8684,22 +8653,22 @@
         <v>35</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="L51" t="s" s="2">
+        <v>421</v>
+      </c>
+      <c r="M51" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="N51" t="s" s="2">
+        <v>423</v>
+      </c>
+      <c r="O51" t="s" s="2">
         <v>424</v>
-      </c>
-      <c r="M51" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="N51" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="O51" t="s" s="2">
-        <v>427</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>35</v>
@@ -8748,19 +8717,19 @@
         <v>35</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH51" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI51" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ51" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK51" t="s" s="2">
         <v>35</v>
@@ -8769,7 +8738,7 @@
         <v>35</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="AN51" t="s" s="2">
         <v>35</v>
@@ -8784,7 +8753,7 @@
         <v>35</v>
       </c>
       <c r="AR51" t="s" s="2">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="AS51" t="s" s="2">
         <v>35</v>
@@ -8792,10 +8761,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -8803,10 +8772,10 @@
       </c>
       <c r="E52" s="2"/>
       <c r="F52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G52" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H52" t="s" s="2">
         <v>35</v>
@@ -8815,20 +8784,20 @@
         <v>35</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>35</v>
@@ -8841,90 +8810,90 @@
         <v>35</v>
       </c>
       <c r="T52" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="U52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF52" t="s" s="2">
+        <v>433</v>
+      </c>
+      <c r="AG52" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH52" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ52" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM52" t="s" s="2">
+        <v>434</v>
+      </c>
+      <c r="AN52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ52" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR52" t="s" s="2">
         <v>435</v>
       </c>
-      <c r="U52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF52" t="s" s="2">
+      <c r="AS52" t="s" s="2">
         <v>436</v>
-      </c>
-      <c r="AG52" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH52" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ52" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM52" t="s" s="2">
-        <v>437</v>
-      </c>
-      <c r="AN52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ52" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR52" t="s" s="2">
-        <v>438</v>
-      </c>
-      <c r="AS52" t="s" s="2">
-        <v>439</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -8932,32 +8901,32 @@
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="P53" t="s" s="2">
         <v>35</v>
@@ -9006,19 +8975,19 @@
         <v>35</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH53" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI53" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>35</v>
@@ -9027,7 +8996,7 @@
         <v>35</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="AN53" t="s" s="2">
         <v>35</v>
@@ -9042,18 +9011,18 @@
         <v>35</v>
       </c>
       <c r="AR53" t="s" s="2">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="AS53" t="s" s="2">
-        <v>447</v>
+        <v>444</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -9061,31 +9030,31 @@
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G54" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I54" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -9111,78 +9080,76 @@
         <v>35</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y54" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y54" s="2"/>
+      <c r="Z54" t="s" s="2">
+        <v>449</v>
+      </c>
+      <c r="AA54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF54" t="s" s="2">
+        <v>445</v>
+      </c>
+      <c r="AG54" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH54" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ54" t="s" s="2">
+        <v>450</v>
+      </c>
+      <c r="AK54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL54" t="s" s="2">
+        <v>451</v>
+      </c>
+      <c r="AM54" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AN54" t="s" s="2">
         <v>452</v>
       </c>
-      <c r="Z54" t="s" s="2">
+      <c r="AO54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP54" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ54" t="s" s="2">
         <v>453</v>
       </c>
-      <c r="AA54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF54" t="s" s="2">
-        <v>448</v>
-      </c>
-      <c r="AG54" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH54" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ54" t="s" s="2">
+      <c r="AR54" t="s" s="2">
+        <v>453</v>
+      </c>
+      <c r="AS54" t="s" s="2">
         <v>454</v>
-      </c>
-      <c r="AK54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL54" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="AM54" t="s" s="2">
-        <v>358</v>
-      </c>
-      <c r="AN54" t="s" s="2">
-        <v>456</v>
-      </c>
-      <c r="AO54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP54" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ54" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AR54" t="s" s="2">
-        <v>457</v>
-      </c>
-      <c r="AS54" t="s" s="2">
-        <v>458</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -9190,31 +9157,31 @@
       </c>
       <c r="E55" s="2"/>
       <c r="F55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G55" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I55" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="N55" t="s" s="2">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="O55" s="2"/>
       <c r="P55" t="s" s="2">
@@ -9264,28 +9231,28 @@
         <v>35</v>
       </c>
       <c r="AF55" t="s" s="2">
+        <v>455</v>
+      </c>
+      <c r="AG55" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH55" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ55" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL55" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM55" t="s" s="2">
         <v>459</v>
-      </c>
-      <c r="AG55" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH55" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ55" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL55" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM55" t="s" s="2">
-        <v>463</v>
       </c>
       <c r="AN55" t="s" s="2">
         <v>35</v>
@@ -9308,10 +9275,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -9322,7 +9289,7 @@
         <v>36</v>
       </c>
       <c r="G56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H56" t="s" s="2">
         <v>35</v>
@@ -9334,13 +9301,13 @@
         <v>35</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -9391,13 +9358,13 @@
         <v>35</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH56" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI56" t="s" s="2">
         <v>35</v>
@@ -9412,7 +9379,7 @@
         <v>35</v>
       </c>
       <c r="AM56" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN56" t="s" s="2">
         <v>35</v>
@@ -9435,14 +9402,14 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" t="s" s="2">
@@ -9461,16 +9428,16 @@
         <v>35</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N57" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O57" s="2"/>
       <c r="P57" t="s" s="2">
@@ -9520,7 +9487,7 @@
         <v>35</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>36</v>
@@ -9532,7 +9499,7 @@
         <v>35</v>
       </c>
       <c r="AJ57" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK57" t="s" s="2">
         <v>35</v>
@@ -9541,7 +9508,7 @@
         <v>35</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN57" t="s" s="2">
         <v>35</v>
@@ -9564,14 +9531,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -9584,25 +9551,25 @@
         <v>35</v>
       </c>
       <c r="I58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="N58" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O58" t="s" s="2">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="P58" t="s" s="2">
         <v>35</v>
@@ -9651,7 +9618,7 @@
         <v>35</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>36</v>
@@ -9663,7 +9630,7 @@
         <v>35</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>35</v>
@@ -9672,7 +9639,7 @@
         <v>35</v>
       </c>
       <c r="AM58" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN58" t="s" s="2">
         <v>35</v>
@@ -9695,10 +9662,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -9721,13 +9688,13 @@
         <v>35</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" s="2"/>
@@ -9778,7 +9745,7 @@
         <v>35</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>36</v>
@@ -9790,31 +9757,31 @@
         <v>35</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>467</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="AM59" t="s" s="2">
+        <v>469</v>
+      </c>
+      <c r="AN59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO59" t="s" s="2">
+        <v>470</v>
+      </c>
+      <c r="AP59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ59" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR59" t="s" s="2">
         <v>471</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>472</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="AN59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO59" t="s" s="2">
-        <v>474</v>
-      </c>
-      <c r="AP59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ59" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR59" t="s" s="2">
-        <v>475</v>
       </c>
       <c r="AS59" t="s" s="2">
         <v>35</v>
@@ -9822,10 +9789,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -9836,7 +9803,7 @@
         <v>36</v>
       </c>
       <c r="G60" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H60" t="s" s="2">
         <v>35</v>
@@ -9848,16 +9815,16 @@
         <v>35</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="N60" t="s" s="2">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="O60" s="2"/>
       <c r="P60" t="s" s="2">
@@ -9883,13 +9850,13 @@
         <v>35</v>
       </c>
       <c r="X60" t="s" s="2">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>35</v>
@@ -9907,7 +9874,7 @@
         <v>35</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>36</v>
@@ -9919,42 +9886,42 @@
         <v>35</v>
       </c>
       <c r="AJ60" t="s" s="2">
+        <v>478</v>
+      </c>
+      <c r="AK60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL60" t="s" s="2">
+        <v>479</v>
+      </c>
+      <c r="AM60" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="AN60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP60" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AR60" t="s" s="2">
+        <v>481</v>
+      </c>
+      <c r="AS60" t="s" s="2">
         <v>482</v>
-      </c>
-      <c r="AK60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL60" t="s" s="2">
-        <v>483</v>
-      </c>
-      <c r="AM60" t="s" s="2">
-        <v>484</v>
-      </c>
-      <c r="AN60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP60" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AR60" t="s" s="2">
-        <v>485</v>
-      </c>
-      <c r="AS60" t="s" s="2">
-        <v>486</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -9962,28 +9929,28 @@
       </c>
       <c r="E61" s="2"/>
       <c r="F61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G61" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I61" t="s" s="2">
         <v>35</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -10034,31 +10001,31 @@
         <v>35</v>
       </c>
       <c r="AF61" t="s" s="2">
+        <v>483</v>
+      </c>
+      <c r="AG61" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH61" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ61" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK61" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL61" t="s" s="2">
         <v>487</v>
       </c>
-      <c r="AG61" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH61" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ61" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK61" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>491</v>
-      </c>
       <c r="AM61" t="s" s="2">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="AN61" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="AO61" t="s" s="2">
         <v>35</v>
@@ -10067,7 +10034,7 @@
         <v>35</v>
       </c>
       <c r="AQ61" t="s" s="2">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="AR61" t="s" s="2">
         <v>35</v>
@@ -10078,10 +10045,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -10092,7 +10059,7 @@
         <v>36</v>
       </c>
       <c r="G62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H62" t="s" s="2">
         <v>35</v>
@@ -10104,13 +10071,13 @@
         <v>35</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -10161,13 +10128,13 @@
         <v>35</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH62" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI62" t="s" s="2">
         <v>35</v>
@@ -10182,7 +10149,7 @@
         <v>35</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN62" t="s" s="2">
         <v>35</v>
@@ -10205,14 +10172,14 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -10231,16 +10198,16 @@
         <v>35</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -10278,19 +10245,19 @@
         <v>35</v>
       </c>
       <c r="AB63" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC63" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD63" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>36</v>
@@ -10302,7 +10269,7 @@
         <v>35</v>
       </c>
       <c r="AJ63" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK63" t="s" s="2">
         <v>35</v>
@@ -10311,7 +10278,7 @@
         <v>35</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN63" t="s" s="2">
         <v>35</v>
@@ -10334,10 +10301,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -10345,10 +10312,10 @@
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G64" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H64" t="s" s="2">
         <v>35</v>
@@ -10357,19 +10324,19 @@
         <v>35</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="O64" s="2"/>
       <c r="P64" t="s" s="2">
@@ -10419,54 +10386,54 @@
         <v>35</v>
       </c>
       <c r="AF64" t="s" s="2">
+        <v>497</v>
+      </c>
+      <c r="AG64" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH64" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI64" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AJ64" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM64" t="s" s="2">
+        <v>499</v>
+      </c>
+      <c r="AN64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP64" t="s" s="2">
+        <v>500</v>
+      </c>
+      <c r="AQ64" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR64" t="s" s="2">
         <v>501</v>
       </c>
-      <c r="AG64" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH64" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI64" t="s" s="2">
+      <c r="AS64" t="s" s="2">
         <v>502</v>
-      </c>
-      <c r="AJ64" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>503</v>
-      </c>
-      <c r="AN64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP64" t="s" s="2">
-        <v>504</v>
-      </c>
-      <c r="AQ64" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR64" t="s" s="2">
-        <v>505</v>
-      </c>
-      <c r="AS64" t="s" s="2">
-        <v>506</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -10477,7 +10444,7 @@
         <v>36</v>
       </c>
       <c r="G65" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H65" t="s" s="2">
         <v>35</v>
@@ -10486,118 +10453,118 @@
         <v>35</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="O65" s="2"/>
       <c r="P65" t="s" s="2">
         <v>35</v>
       </c>
       <c r="Q65" t="s" s="2">
+        <v>507</v>
+      </c>
+      <c r="R65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="S65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="T65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="U65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="V65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="W65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="X65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Y65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="Z65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AA65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF65" t="s" s="2">
+        <v>508</v>
+      </c>
+      <c r="AG65" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH65" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI65" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="AJ65" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="AK65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AM65" t="s" s="2">
+        <v>509</v>
+      </c>
+      <c r="AN65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AO65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP65" t="s" s="2">
+        <v>510</v>
+      </c>
+      <c r="AQ65" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AR65" t="s" s="2">
         <v>511</v>
       </c>
-      <c r="R65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="S65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="T65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="U65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="V65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="W65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="X65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Y65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="Z65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AA65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF65" t="s" s="2">
+      <c r="AS65" t="s" s="2">
         <v>512</v>
-      </c>
-      <c r="AG65" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH65" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI65" t="s" s="2">
-        <v>502</v>
-      </c>
-      <c r="AJ65" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="AK65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>513</v>
-      </c>
-      <c r="AN65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AO65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP65" t="s" s="2">
-        <v>514</v>
-      </c>
-      <c r="AQ65" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AR65" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="AS65" t="s" s="2">
-        <v>516</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
@@ -10605,13 +10572,13 @@
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G66" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H66" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>35</v>
@@ -10620,13 +10587,13 @@
         <v>35</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -10653,78 +10620,76 @@
         <v>35</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y66" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="Y66" s="2"/>
+      <c r="Z66" t="s" s="2">
+        <v>516</v>
+      </c>
+      <c r="AA66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AB66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AC66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AD66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AE66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AF66" t="s" s="2">
+        <v>513</v>
+      </c>
+      <c r="AG66" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AH66" t="s" s="2">
+        <v>50</v>
+      </c>
+      <c r="AI66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AJ66" t="s" s="2">
+        <v>517</v>
+      </c>
+      <c r="AK66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AL66" t="s" s="2">
+        <v>518</v>
+      </c>
+      <c r="AM66" t="s" s="2">
+        <v>519</v>
+      </c>
+      <c r="AN66" t="s" s="2">
         <v>520</v>
       </c>
-      <c r="Z66" t="s" s="2">
+      <c r="AO66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AP66" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="AQ66" t="s" s="2">
         <v>521</v>
       </c>
-      <c r="AA66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AB66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AC66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AD66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AE66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AF66" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="AG66" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AH66" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AI66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AJ66" t="s" s="2">
+      <c r="AR66" t="s" s="2">
+        <v>521</v>
+      </c>
+      <c r="AS66" t="s" s="2">
         <v>522</v>
-      </c>
-      <c r="AK66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AL66" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="AM66" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="AN66" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="AO66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AP66" t="s" s="2">
-        <v>35</v>
-      </c>
-      <c r="AQ66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AR66" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AS66" t="s" s="2">
-        <v>527</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -10732,13 +10697,13 @@
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H67" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>35</v>
@@ -10747,19 +10712,19 @@
         <v>35</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>529</v>
+        <v>524</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>530</v>
+        <v>525</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>531</v>
+        <v>526</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>532</v>
+        <v>527</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>35</v>
@@ -10784,13 +10749,11 @@
         <v>35</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="Y67" t="s" s="2">
-        <v>533</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="Y67" s="2"/>
       <c r="Z67" t="s" s="2">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="AA67" t="s" s="2">
         <v>35</v>
@@ -10808,31 +10771,31 @@
         <v>35</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>528</v>
+        <v>523</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH67" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>524</v>
+        <v>519</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>523</v>
+        <v>518</v>
       </c>
       <c r="AO67" t="s" s="2">
         <v>35</v>
@@ -10841,21 +10804,21 @@
         <v>35</v>
       </c>
       <c r="AQ67" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AR67" t="s" s="2">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="AS67" t="s" s="2">
-        <v>536</v>
+        <v>530</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -10863,13 +10826,13 @@
       </c>
       <c r="E68" s="2"/>
       <c r="F68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="G68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H68" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>35</v>
@@ -10878,13 +10841,13 @@
         <v>35</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -10935,32 +10898,32 @@
         <v>35</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH68" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL68" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="AM68" t="s" s="2">
         <v>245</v>
       </c>
-      <c r="AM68" t="s" s="2">
+      <c r="AN68" t="s" s="2">
         <v>246</v>
       </c>
-      <c r="AN68" t="s" s="2">
-        <v>247</v>
-      </c>
       <c r="AO68" t="s" s="2">
         <v>35</v>
       </c>
@@ -10968,7 +10931,7 @@
         <v>35</v>
       </c>
       <c r="AQ68" t="s" s="2">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="AR68" t="s" s="2">
         <v>35</v>
@@ -10979,10 +10942,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -10993,7 +10956,7 @@
         <v>36</v>
       </c>
       <c r="G69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H69" t="s" s="2">
         <v>35</v>
@@ -11005,13 +10968,13 @@
         <v>35</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -11062,13 +11025,13 @@
         <v>35</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH69" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI69" t="s" s="2">
         <v>35</v>
@@ -11083,7 +11046,7 @@
         <v>35</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>35</v>
@@ -11106,14 +11069,14 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" t="s" s="2">
@@ -11132,16 +11095,16 @@
         <v>35</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -11179,19 +11142,19 @@
         <v>35</v>
       </c>
       <c r="AB70" t="s" s="2">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="AC70" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="AD70" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>36</v>
@@ -11203,7 +11166,7 @@
         <v>35</v>
       </c>
       <c r="AJ70" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="AK70" t="s" s="2">
         <v>35</v>
@@ -11212,7 +11175,7 @@
         <v>35</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>35</v>
@@ -11235,10 +11198,10 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -11249,7 +11212,7 @@
         <v>36</v>
       </c>
       <c r="G71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H71" t="s" s="2">
         <v>35</v>
@@ -11258,19 +11221,19 @@
         <v>35</v>
       </c>
       <c r="J71" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="O71" s="2"/>
       <c r="P71" t="s" s="2">
@@ -11320,19 +11283,19 @@
         <v>35</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH71" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI71" t="s" s="2">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="AJ71" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK71" t="s" s="2">
         <v>35</v>
@@ -11341,7 +11304,7 @@
         <v>35</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>35</v>
@@ -11356,7 +11319,7 @@
         <v>35</v>
       </c>
       <c r="AR71" t="s" s="2">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="AS71" t="s" s="2">
         <v>35</v>
@@ -11364,10 +11327,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -11378,7 +11341,7 @@
         <v>36</v>
       </c>
       <c r="G72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H72" t="s" s="2">
         <v>35</v>
@@ -11387,19 +11350,19 @@
         <v>35</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="N72" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="O72" s="2"/>
       <c r="P72" t="s" s="2">
@@ -11425,13 +11388,13 @@
         <v>35</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>35</v>
@@ -11449,19 +11412,19 @@
         <v>35</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH72" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI72" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>35</v>
@@ -11470,7 +11433,7 @@
         <v>35</v>
       </c>
       <c r="AM72" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN72" t="s" s="2">
         <v>35</v>
@@ -11493,10 +11456,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -11507,7 +11470,7 @@
         <v>36</v>
       </c>
       <c r="G73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H73" t="s" s="2">
         <v>35</v>
@@ -11516,19 +11479,19 @@
         <v>35</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="O73" s="2"/>
       <c r="P73" t="s" s="2">
@@ -11578,19 +11541,19 @@
         <v>35</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH73" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI73" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>35</v>
@@ -11599,7 +11562,7 @@
         <v>35</v>
       </c>
       <c r="AM73" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="AN73" t="s" s="2">
         <v>35</v>
@@ -11614,7 +11577,7 @@
         <v>35</v>
       </c>
       <c r="AR73" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="AS73" t="s" s="2">
         <v>35</v>
@@ -11622,10 +11585,10 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -11636,7 +11599,7 @@
         <v>36</v>
       </c>
       <c r="G74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H74" t="s" s="2">
         <v>35</v>
@@ -11645,19 +11608,19 @@
         <v>35</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="O74" s="2"/>
       <c r="P74" t="s" s="2">
@@ -11707,19 +11670,19 @@
         <v>35</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AH74" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AI74" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>35</v>
@@ -11728,7 +11691,7 @@
         <v>35</v>
       </c>
       <c r="AM74" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AN74" t="s" s="2">
         <v>35</v>
@@ -11751,10 +11714,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -11777,16 +11740,16 @@
         <v>35</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="O75" s="2"/>
       <c r="P75" t="s" s="2">
@@ -11836,7 +11799,7 @@
         <v>35</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>36</v>
@@ -11848,19 +11811,19 @@
         <v>35</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>35</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="AO75" t="s" s="2">
         <v>35</v>
@@ -11869,10 +11832,10 @@
         <v>35</v>
       </c>
       <c r="AQ75" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="AR75" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="AS75" t="s" s="2">
         <v>35</v>

--- a/ig/nr-prepare-release/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
+++ b/ig/nr-prepare-release/StructureDefinition-pdsm-comprehensive-document-reference.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-01T08:02:25+00:00</t>
+    <t>2023-10-11T07:59:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
